--- a/Tests/base case tests new guidance.xlsx
+++ b/Tests/base case tests new guidance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\FYP\pyLanderSim\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9196E0B-2499-4D7E-ACBD-291CD4E25651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D33859-AAF6-4B4F-9C58-3604E704811E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6432363C-8F0D-466E-8FFF-1F4EB92E218D}"/>
+    <workbookView xWindow="28680" yWindow="-3600" windowWidth="29040" windowHeight="15840" xr2:uid="{6432363C-8F0D-466E-8FFF-1F4EB92E218D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,67 +134,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Thrust vs</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> Range Error</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -350,8 +290,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -412,8 +407,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -519,62 +569,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dX vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -730,6 +725,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -792,6 +842,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -899,62 +1004,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dZ vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1110,6 +1160,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1172,6 +1277,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1279,62 +1444,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dZ vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1490,6 +1600,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1552,6 +1717,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3195,62 +3415,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Thrust vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3406,6 +3571,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3468,6 +3688,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4335,62 +4610,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial X vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4546,6 +4766,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4608,6 +4883,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Error [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4715,62 +5050,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial X vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4926,6 +5206,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4988,6 +5323,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5095,62 +5485,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial Z vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5306,6 +5641,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5368,6 +5758,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Error [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5475,62 +5925,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial Z vs Fuel Consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5686,6 +6081,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial Z Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5748,6 +6198,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Fuel Consumption [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5855,62 +6360,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Initial dX vs Range Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6066,6 +6516,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Initial X Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6128,6 +6633,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Landing Error [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16021,10 +16581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53024B73-4110-4BB0-AABF-5DA1AF3A9961}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="U70" sqref="U69:U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16177,7 +16737,7 @@
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.05</v>
       </c>
@@ -16187,13 +16747,17 @@
       <c r="C17">
         <v>137.94</v>
       </c>
+      <c r="D17">
+        <f>B17-B7</f>
+        <v>-1.1600000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0.95</v>
       </c>
@@ -16204,7 +16768,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.96</v>
       </c>
@@ -16215,7 +16779,7 @@
         <v>123.15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.97</v>
       </c>
@@ -16226,7 +16790,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.98</v>
       </c>
@@ -16237,7 +16801,7 @@
         <v>123.15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.99</v>
       </c>
@@ -16248,7 +16812,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -16259,7 +16823,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1.01</v>
       </c>
@@ -16270,7 +16834,7 @@
         <v>123.15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1.02</v>
       </c>
@@ -16281,7 +16845,7 @@
         <v>123.15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1.03</v>
       </c>
@@ -16292,7 +16856,7 @@
         <v>123.15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1.04</v>
       </c>
@@ -16303,7 +16867,7 @@
         <v>123.15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1.05</v>
       </c>
@@ -16314,12 +16878,12 @@
         <v>123.15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.9</v>
       </c>
@@ -16330,7 +16894,7 @@
         <v>123.78</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.92</v>
       </c>
@@ -16341,7 +16905,7 @@
         <v>123.58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.94</v>
       </c>
@@ -16352,7 +16916,7 @@
         <v>123.42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.96</v>
       </c>
@@ -16363,7 +16927,7 @@
         <v>123.29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.98</v>
       </c>
@@ -16374,7 +16938,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -16385,7 +16949,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1.02</v>
       </c>
@@ -16396,7 +16960,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1.04</v>
       </c>
@@ -16407,7 +16971,7 @@
         <v>123.19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1.06</v>
       </c>
@@ -16418,7 +16982,7 @@
         <v>123.27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.08</v>
       </c>
@@ -16428,8 +16992,12 @@
       <c r="C42">
         <v>123.41</v>
       </c>
+      <c r="D42">
+        <f>C43-C33</f>
+        <v>-0.18000000000000682</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16439,13 +17007,17 @@
       <c r="C43">
         <v>123.6</v>
       </c>
+      <c r="D43">
+        <f>B43-B33</f>
+        <v>2.08</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.9</v>
       </c>
@@ -16456,7 +17028,7 @@
         <v>123.21</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.92</v>
       </c>
@@ -16467,7 +17039,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.94</v>
       </c>
@@ -16478,7 +17050,7 @@
         <v>123.19</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.96</v>
       </c>
@@ -16489,7 +17061,7 @@
         <v>123.17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.98</v>
       </c>
@@ -16500,7 +17072,7 @@
         <v>123.16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -16511,7 +17083,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1.02</v>
       </c>
@@ -16522,7 +17094,7 @@
         <v>123.13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1.04</v>
       </c>
@@ -16533,7 +17105,7 @@
         <v>123.12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1.06</v>
       </c>
@@ -16544,7 +17116,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1.08</v>
       </c>
@@ -16554,8 +17126,12 @@
       <c r="C55">
         <v>123.09</v>
       </c>
+      <c r="D55">
+        <f>C56-C46</f>
+        <v>-0.12999999999999545</v>
+      </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16565,13 +17141,17 @@
       <c r="C56">
         <v>123.08</v>
       </c>
+      <c r="D56">
+        <f>B56-B46</f>
+        <v>-0.30999999999999872</v>
+      </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.9</v>
       </c>
@@ -16582,7 +17162,7 @@
         <v>121.09</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.92</v>
       </c>
@@ -16593,7 +17173,7 @@
         <v>121.35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.94</v>
       </c>
@@ -16604,7 +17184,7 @@
         <v>121.69</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.96</v>
       </c>
@@ -16615,7 +17195,7 @@
         <v>122.11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.98</v>
       </c>
@@ -16626,7 +17206,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -16637,7 +17217,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1.02</v>
       </c>
@@ -16648,7 +17228,7 @@
         <v>123.76</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1.04</v>
       </c>
@@ -16659,7 +17239,7 @@
         <v>123.42</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1.06</v>
       </c>
@@ -16670,7 +17250,7 @@
         <v>125.14</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1.08</v>
       </c>
@@ -16680,8 +17260,12 @@
       <c r="C69">
         <v>125.88</v>
       </c>
+      <c r="D69">
+        <f>C70-C60</f>
+        <v>5.5799999999999983</v>
+      </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16691,13 +17275,17 @@
       <c r="C70">
         <v>126.67</v>
       </c>
+      <c r="D70">
+        <f>B70-B60</f>
+        <v>-0.92999999999999972</v>
+      </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.9</v>
       </c>
@@ -16708,7 +17296,7 @@
         <v>121.66</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.92</v>
       </c>
@@ -16719,7 +17307,7 @@
         <v>121.95</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.94</v>
       </c>
@@ -16730,7 +17318,7 @@
         <v>122.25</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.96</v>
       </c>
@@ -16741,7 +17329,7 @@
         <v>122.55</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.98</v>
       </c>
@@ -16752,7 +17340,7 @@
         <v>122.85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -16763,7 +17351,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>1.02</v>
       </c>
@@ -16774,7 +17362,7 @@
         <v>123.44</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1.04</v>
       </c>
@@ -16785,7 +17373,7 @@
         <v>123.74</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1.06</v>
       </c>
@@ -16796,7 +17384,7 @@
         <v>124.05</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1.08</v>
       </c>
@@ -16806,8 +17394,12 @@
       <c r="C82">
         <v>124.35</v>
       </c>
+      <c r="D82">
+        <f>C83-C73</f>
+        <v>2.9900000000000091</v>
+      </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -16817,13 +17409,17 @@
       <c r="C83">
         <v>124.65</v>
       </c>
+      <c r="D83">
+        <f>B83-B73</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>-10</v>
       </c>
@@ -16834,7 +17430,7 @@
         <v>123.27</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>-8</v>
       </c>
@@ -16845,7 +17441,7 @@
         <v>123.24</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>-6</v>
       </c>
@@ -16856,7 +17452,7 @@
         <v>123.21</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>-4</v>
       </c>
@@ -16867,7 +17463,7 @@
         <v>123.19</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>-2</v>
       </c>
@@ -16878,7 +17474,7 @@
         <v>123.16</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -16889,7 +17485,7 @@
         <v>123.14</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -16900,7 +17496,7 @@
         <v>123.12</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -16911,7 +17507,7 @@
         <v>123.11</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>6</v>
       </c>
@@ -16922,7 +17518,7 @@
         <v>123.09</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8</v>
       </c>
